--- a/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -11,28 +11,33 @@
     <sheet name="7__783d1f36-c06c-341" sheetId="2" r:id="rId2"/>
     <sheet name="8__783d1f36-c06c-341" sheetId="3" r:id="rId3"/>
     <sheet name="9__6354e3c7-4619-3a0" sheetId="4" r:id="rId4"/>
-    <sheet name="11__09af3f09-68b9-35" sheetId="5" r:id="rId5"/>
-    <sheet name="11__e3601430-2dd6-33" sheetId="6" r:id="rId6"/>
-    <sheet name="11__bb79b34d-1e9c-34" sheetId="7" r:id="rId7"/>
-    <sheet name="12__24662bf7-9672-32" sheetId="8" r:id="rId8"/>
-    <sheet name="16__2307c038-33fd-3b" sheetId="9" r:id="rId9"/>
-    <sheet name="16__6bafd8f6-8a94-32" sheetId="10" r:id="rId10"/>
-    <sheet name="17__65990df0-8285-3b" sheetId="11" r:id="rId11"/>
-    <sheet name="15__2307c038-33fd-3b" sheetId="12" r:id="rId12"/>
-    <sheet name="18__8a5d8593-402f-32" sheetId="13" r:id="rId13"/>
-    <sheet name="19__85574d29-1138-3d" sheetId="14" r:id="rId14"/>
-    <sheet name="4_1_e8b583fe-7a0d-33" sheetId="15" r:id="rId15"/>
-    <sheet name="4_2_e8b583fe-7a0d-33" sheetId="16" r:id="rId16"/>
-    <sheet name="4_3_e8b583fe-7a0d-33" sheetId="17" r:id="rId17"/>
-    <sheet name="4_4_dfb38738-8ae6-35" sheetId="18" r:id="rId18"/>
-    <sheet name="4_5_dfb38738-8ae6-35" sheetId="19" r:id="rId19"/>
+    <sheet name="20__817597a4-1bac-38" sheetId="5" r:id="rId5"/>
+    <sheet name="11__09af3f09-68b9-35" sheetId="6" r:id="rId6"/>
+    <sheet name="11__e3601430-2dd6-33" sheetId="7" r:id="rId7"/>
+    <sheet name="11__bb79b34d-1e9c-34" sheetId="8" r:id="rId8"/>
+    <sheet name="12__24662bf7-9672-32" sheetId="9" r:id="rId9"/>
+    <sheet name="5__be4d92ca-40d3-32d" sheetId="10" r:id="rId10"/>
+    <sheet name="5__994bc063-83b4-3b8" sheetId="11" r:id="rId11"/>
+    <sheet name="5__673995c5-d2ab-3ea" sheetId="12" r:id="rId12"/>
+    <sheet name="5__67dae025-9104-3cc" sheetId="13" r:id="rId13"/>
+    <sheet name="16__2307c038-33fd-3b" sheetId="14" r:id="rId14"/>
+    <sheet name="16__6bafd8f6-8a94-32" sheetId="15" r:id="rId15"/>
+    <sheet name="17__65990df0-8285-3b" sheetId="16" r:id="rId16"/>
+    <sheet name="15__2307c038-33fd-3b" sheetId="17" r:id="rId17"/>
+    <sheet name="18__8a5d8593-402f-32" sheetId="18" r:id="rId18"/>
+    <sheet name="19__85574d29-1138-3d" sheetId="19" r:id="rId19"/>
+    <sheet name="4_1_e8b583fe-7a0d-33" sheetId="20" r:id="rId20"/>
+    <sheet name="4_2_e8b583fe-7a0d-33" sheetId="21" r:id="rId21"/>
+    <sheet name="4_3_e8b583fe-7a0d-33" sheetId="22" r:id="rId22"/>
+    <sheet name="4_4_dfb38738-8ae6-35" sheetId="23" r:id="rId23"/>
+    <sheet name="4_5_dfb38738-8ae6-35" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="120">
   <si>
     <t>line_item_0</t>
   </si>
@@ -55,133 +60,223 @@
     <t>Cash at bank and on hand</t>
   </si>
   <si>
-    <t>Cash at banks earns interest at floating rates based on daily bank deposit rates.</t>
+    <t>$000</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>GST receivable</t>
+  </si>
+  <si>
+    <t>Related party receivables (Note 20)</t>
+  </si>
+  <si>
+    <t>Raw materials</t>
+  </si>
+  <si>
+    <t>Finished goods</t>
+  </si>
+  <si>
+    <t>Foreign exchange derivatives at fair value</t>
+  </si>
+  <si>
+    <t>Electricity derivatives at fair value</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>line_item_1</t>
+  </si>
+  <si>
+    <t>header_col_2</t>
+  </si>
+  <si>
+    <t>Aluminium Pty Ltd</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Southern Cross</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Ownership interest</t>
+  </si>
+  <si>
+    <t>At 1 January</t>
+  </si>
+  <si>
+    <t>Share of gain/(loss) of joint venture, net of tax</t>
+  </si>
+  <si>
+    <t>Share of other comprehensive income, net of tax</t>
+  </si>
+  <si>
+    <t>Carrying value of investment at end of year</t>
+  </si>
+  <si>
+    <t>Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
+  </si>
+  <si>
+    <t>At 1 January 2020</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>At 31 December 2020</t>
+  </si>
+  <si>
+    <t>At1 January 2020</t>
+  </si>
+  <si>
+    <t>Depreciation charge for the year</t>
+  </si>
+  <si>
+    <t>Impairment*</t>
+  </si>
+  <si>
+    <t>At 31 December 2019</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation and impairment</t>
+  </si>
+  <si>
+    <t>Net book value</t>
+  </si>
+  <si>
+    <t>Freehold land and buildings</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
+  </si>
+  <si>
+    <t>Asset Retirement Obligation**</t>
+  </si>
+  <si>
+    <t>Construction inj progress</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Current income tax benefit</t>
+  </si>
+  <si>
+    <t>Adjustments in respect of current income tax of previous year</t>
+  </si>
+  <si>
+    <t>Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>comprehensive income</t>
+  </si>
+  <si>
+    <t>Current income tax:</t>
+  </si>
+  <si>
+    <t>Deferred income tax:</t>
+  </si>
+  <si>
+    <t>Income tax benefit reported in the statement of profit or loss and other</t>
+  </si>
+  <si>
+    <t>Accounting loss before income tax</t>
+  </si>
+  <si>
+    <t>At Australia's statutory income tax rate of 30% (2019: 30%)</t>
+  </si>
+  <si>
+    <t>Amounts not deductible for tax purposes</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Income tax benefit reported in profit or loss</t>
+  </si>
+  <si>
+    <t>As of 1 January</t>
+  </si>
+  <si>
+    <t>Income tax benefit during the year recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Income tax benefit during the year recognised in other comprehensive income</t>
+  </si>
+  <si>
+    <t>As at 31 December</t>
   </si>
   <si>
     <t>Trade and other receivables</t>
   </si>
   <si>
-    <t>$000</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>GST receivable</t>
-  </si>
-  <si>
-    <t>Related party receivables (Note 20)</t>
-  </si>
-  <si>
-    <t>8. Inventories</t>
-  </si>
-  <si>
-    <t>Raw materials</t>
-  </si>
-  <si>
-    <t>Finished goods</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Foreign exchange derivatives at fair value</t>
-  </si>
-  <si>
-    <t>Electricity derivatives at fair value</t>
-  </si>
-  <si>
-    <t>Non-current</t>
-  </si>
-  <si>
-    <t>line_item_1</t>
-  </si>
-  <si>
-    <t>header_col_2</t>
-  </si>
-  <si>
-    <t>Southern Cross</t>
-  </si>
-  <si>
-    <t>Aluminium Pty Ltd</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Ownership interest</t>
-  </si>
-  <si>
-    <t>At 1 January</t>
-  </si>
-  <si>
-    <t>Share of gain/(loss) of joint venture, net of tax</t>
-  </si>
-  <si>
-    <t>Share of other comprehensive income, net of tax</t>
-  </si>
-  <si>
-    <t>Carrying value of investment at end of year</t>
-  </si>
-  <si>
-    <t>Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>At 1 January 2020</t>
-  </si>
-  <si>
-    <t>Additions</t>
-  </si>
-  <si>
-    <t>Disposals</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>At 31 December 2020</t>
-  </si>
-  <si>
-    <t>Accumulated depreciation and impairment</t>
-  </si>
-  <si>
-    <t>At1 January 2020</t>
-  </si>
-  <si>
-    <t>Depreciation charge for the year</t>
-  </si>
-  <si>
-    <t>Impairment*</t>
-  </si>
-  <si>
-    <t>Net book value</t>
-  </si>
-  <si>
-    <t>At 31 December 2019</t>
-  </si>
-  <si>
-    <t>Freehold land and buildings</t>
-  </si>
-  <si>
-    <t>Plant and equipment</t>
-  </si>
-  <si>
-    <t>Asset Retirement Obligation**</t>
-  </si>
-  <si>
-    <t>Construction inj progress</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>Financial liabilities</t>
+  </si>
+  <si>
+    <t>ARO assets</t>
+  </si>
+  <si>
+    <t>Deferred tax benefit</t>
+  </si>
+  <si>
+    <t>Net deferred tax assets/liabilities)</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax assets/liabilities), net</t>
+  </si>
+  <si>
+    <t>as follows:</t>
+  </si>
+  <si>
+    <t>Statement of profit or loss Statement of financial and other comprehensive position income</t>
   </si>
   <si>
     <t>Bank borrowings</t>
@@ -232,72 +327,57 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>Trade and other payables</t>
-  </si>
-  <si>
     <t>Electricity derivatives at fair value through OCI</t>
   </si>
   <si>
-    <t>Lease liabilities</t>
-  </si>
-  <si>
-    <t>16. Borrowings</t>
-  </si>
-  <si>
     <t>155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
+    <t>Balance at 1 January</t>
+  </si>
+  <si>
+    <t>Net other comprehensive loss for the year</t>
+  </si>
+  <si>
+    <t>Net other comprehensive (loss)/income for the year, net of tax</t>
+  </si>
+  <si>
     <t>Cash flow hedge reserve</t>
   </si>
   <si>
-    <t>Balance at 1 January</t>
-  </si>
-  <si>
-    <t>Net other comprehensive loss for the year</t>
-  </si>
-  <si>
     <t>Reserve in joint venture</t>
   </si>
   <si>
-    <t>Net other comprehensive (loss)/income for the year, net of tax</t>
-  </si>
-  <si>
     <t>Other reserve</t>
   </si>
   <si>
+    <t>Sale of goods</t>
+  </si>
+  <si>
+    <t>Total revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Goods transferred at a point in time</t>
+  </si>
+  <si>
     <t>Type of goods</t>
   </si>
   <si>
-    <t>Sale of goods</t>
-  </si>
-  <si>
-    <t>Total revenue from contracts with customers</t>
-  </si>
-  <si>
     <t>Geographical markets</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Timing of revenue recognition</t>
   </si>
   <si>
-    <t>Goods transferred at a point in time</t>
-  </si>
-  <si>
-    <t>4.2 Other revenue</t>
-  </si>
-  <si>
     <t>Commission revenue</t>
   </si>
   <si>
-    <t>4.3 Other income</t>
-  </si>
-  <si>
     <t>Government grants</t>
   </si>
   <si>
@@ -311,9 +391,6 @@
   </si>
   <si>
     <t>Bank interest</t>
-  </si>
-  <si>
-    <t>4.5 Finance costs</t>
   </si>
   <si>
     <t>Interest expenses</t>
@@ -677,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,10 +788,10 @@
         <v>19589</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -722,98 +799,18 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>28259</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>28259</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
         <v>2019</v>
       </c>
     </row>
@@ -823,6 +820,2024 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>5119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>3027</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>8217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>5473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>-1529</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>3944</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>-28082</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>8425</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>-192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>-87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>-8217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>-20678</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>6203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>-2276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>-3944</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>-11017</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>3027</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>13747</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>5757</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>-14534</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>-1529</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>5046</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>-11017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>6559</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>-302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>-13952</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>16238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>881</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>-4213</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>5757</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>24223</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>-18466</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>5757</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>-12662</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>7055</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>-443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>-10221</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>4671</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>454</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>-11017</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>12309</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32">
+        <v>-23326</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>-11017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>-12662</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>496</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>-141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>3730</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>-11567</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <v>-881</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>4213</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>-162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>-16775</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>5181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>-1034</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>-443</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>-12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>-643</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>42</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>454</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>-79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>3517</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -835,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -850,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -858,22 +2873,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>52100</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>2020</v>
@@ -881,19 +2896,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>2020</v>
@@ -901,22 +2916,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>3273</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>2020</v>
@@ -924,22 +2939,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>48827</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>2020</v>
@@ -947,22 +2962,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>13500</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>2020</v>
@@ -970,19 +2985,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>2020</v>
@@ -990,22 +3005,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>13500</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>2020</v>
@@ -1013,22 +3028,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>2020</v>
@@ -1036,22 +3051,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>52100</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>2019</v>
@@ -1059,19 +3074,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>4000</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>2019</v>
@@ -1079,22 +3094,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>1023</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>2019</v>
@@ -1102,22 +3117,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>47077</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>2019</v>
@@ -1125,22 +3140,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>13500</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>2019</v>
@@ -1148,19 +3163,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>2019</v>
@@ -1168,22 +3183,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>13500</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>2019</v>
@@ -1191,22 +3206,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>2019</v>
@@ -1217,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -1244,13 +3259,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>4343</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>2020</v>
@@ -1258,13 +3273,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -1272,13 +3287,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -1286,13 +3301,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>4884</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1300,13 +3315,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>4846</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -1314,13 +3329,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -1328,13 +3343,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>3725</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -1342,13 +3357,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>2020</v>
@@ -1356,13 +3371,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -1370,13 +3385,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>3884</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>2020</v>
@@ -1384,13 +3399,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>3884</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -1398,13 +3413,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>2020</v>
@@ -1412,13 +3427,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -1426,13 +3441,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>865</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -1440,13 +3455,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>-518</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -1454,13 +3469,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>2020</v>
@@ -1468,13 +3483,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>2020</v>
@@ -1482,13 +3497,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>347</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>2020</v>
@@ -1496,13 +3511,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>4806</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <v>2020</v>
@@ -1510,13 +3525,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>36032</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>2020</v>
@@ -1524,13 +3539,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C22">
         <v>-336</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>2020</v>
@@ -1538,13 +3553,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>40502</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>2020</v>
@@ -1552,13 +3567,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>2020</v>
@@ -1566,13 +3581,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>40502</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>2020</v>
@@ -1580,13 +3595,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>6983</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E26">
         <v>2020</v>
@@ -1594,13 +3609,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>1286</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E27">
         <v>2020</v>
@@ -1608,13 +3623,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E28">
         <v>2020</v>
@@ -1622,13 +3637,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>8269</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>2020</v>
@@ -1636,13 +3651,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>729</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <v>2020</v>
@@ -1650,13 +3665,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>7540</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E31">
         <v>2020</v>
@@ -1664,13 +3679,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>19857</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E32">
         <v>2020</v>
@@ -1678,13 +3693,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>38883</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E33">
         <v>2020</v>
@@ -1692,13 +3707,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>-854</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -1706,13 +3721,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>57886</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E35">
         <v>2020</v>
@@ -1720,13 +3735,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>9459</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E36">
         <v>2020</v>
@@ -1734,13 +3749,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>48427</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E37">
         <v>2020</v>
@@ -1751,9 +3766,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1781,16 +3796,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>25569</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -1798,16 +3813,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>2935</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -1815,16 +3830,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>1053</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -1835,10 +3850,10 @@
         <v>29557</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -1846,16 +3861,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>25662</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -1863,38 +3878,18 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>3895</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
         <v>2020</v>
       </c>
     </row>
@@ -1903,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1933,16 +3928,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>150997</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -1950,16 +3945,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>150997</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -1970,9 +3965,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2000,19 +3995,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>29543</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2020,19 +4015,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>29543</v>
+        <v>-31598</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2040,39 +4035,36 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C4">
-        <v>-31598</v>
+        <v>-2055</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>-2055</v>
+        <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -2080,33 +4072,36 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5922</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -2114,19 +4109,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-8448</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -2134,133 +4129,127 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C9">
-        <v>5922</v>
+        <v>-2526</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C10">
-        <v>-8448</v>
+        <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C11">
-        <v>-2526</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>325</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>2020</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C15">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -2268,53 +4257,59 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C16">
-        <v>325</v>
+        <v>35790</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>-40046</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-4256</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -2322,99 +4317,93 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>41448</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C20">
-        <v>35790</v>
+        <v>-11905</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C21">
-        <v>-40046</v>
+        <v>29543</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C22">
-        <v>-4256</v>
+        <v>2019</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>2019</v>
@@ -2422,19 +4411,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C24">
-        <v>41448</v>
+        <v>3049</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>2019</v>
@@ -2442,19 +4431,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C25">
-        <v>-11905</v>
+        <v>2873</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -2462,19 +4451,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C26">
-        <v>29543</v>
+        <v>5922</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>2019</v>
@@ -2482,16 +4471,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>2019</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>2019</v>
@@ -2499,16 +4488,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>2019</v>
@@ -2516,19 +4505,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>2019</v>
@@ -2536,93 +4525,93 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C30">
-        <v>3049</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>2019</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C31">
-        <v>2873</v>
+        <v>2019</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>2019</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C32">
-        <v>5922</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>2019</v>
       </c>
     </row>
     <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C33">
-        <v>2019</v>
+        <v>44822</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>2019</v>
       </c>
     </row>
     <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-9032</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -2630,175 +4619,21 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>35790</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36">
-        <v>325</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37">
-        <v>325</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38">
-        <v>2019</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41">
-        <v>44822</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42">
-        <v>-9032</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>35790</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43">
         <v>2019</v>
       </c>
     </row>
@@ -2807,9 +4642,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2837,19 +4672,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1697</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2857,39 +4689,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>214911</v>
+        <v>11927</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
       <c r="C4">
-        <v>214911</v>
+        <v>13624</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -2897,381 +4720,49 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>190814</v>
+        <v>10609</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
       <c r="C7">
-        <v>24097</v>
+        <v>11999</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>214911</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10">
-        <v>214911</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11">
-        <v>214911</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14">
-        <v>229785</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15">
-        <v>229785</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17">
-        <v>197789</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18">
-        <v>31996</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19">
-        <v>229785</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21">
-        <v>229785</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22">
-        <v>229785</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23">
         <v>2019</v>
       </c>
     </row>
@@ -3280,9 +4771,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3310,16 +4801,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>775</v>
+        <v>214911</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3327,19 +4821,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>214911</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -3347,38 +4841,241 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>780</v>
+        <v>190814</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>24097</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>214911</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>214911</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>214911</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>229785</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>229785</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>197789</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>31996</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>229785</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>229785</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>229785</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
         <v>2019</v>
       </c>
     </row>
@@ -3387,7 +5084,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>775</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>780</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -3417,16 +5181,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>13054</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3434,16 +5198,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -3451,16 +5215,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -3468,16 +5232,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>577</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -3488,10 +5252,10 @@
         <v>13631</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -3499,16 +5263,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>5350</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -3516,16 +5280,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>4202</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -3533,16 +5297,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -3550,16 +5314,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -3570,10 +5334,10 @@
         <v>10144</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -3584,9 +5348,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,16 +5378,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3631,58 +5395,18 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
         <v>2019</v>
       </c>
     </row>
@@ -3691,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3721,16 +5445,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>-203</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3738,16 +5462,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>-336</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -3758,10 +5482,10 @@
         <v>-539</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -3769,16 +5493,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>-303</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -3786,16 +5510,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C6">
         <v>-315</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -3806,181 +5530,12 @@
         <v>-618</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1697</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>11927</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4">
-        <v>13624</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1390</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>10609</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8">
-        <v>11999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
         <v>2019</v>
       </c>
     </row>
@@ -4019,16 +5574,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>18547</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4036,16 +5591,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>8651</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -4056,10 +5611,10 @@
         <v>27198</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4067,16 +5622,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>19816</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -4084,16 +5639,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>7137</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -4104,10 +5659,10 @@
         <v>26953</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -4119,508 +5674,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>29702</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>29753</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>12453</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>47672</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>54535</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4650,16 +5703,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>54535</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4667,33 +5723,36 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>30</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>-8448</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4701,16 +5760,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>47672</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4718,16 +5780,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>59249</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -4735,33 +5800,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>-7587</v>
+        <v>29702</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>2873</v>
+        <v>29753</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -4769,18 +5837,176 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9">
+        <v>12453</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>47672</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>54535</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
         <v>2019</v>
       </c>
     </row>
@@ -4790,6 +6016,175 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>54535</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1586</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>-8448</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>47672</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>59249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>-7587</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>2873</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>54535</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4819,16 +6214,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>47672</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4836,16 +6231,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>54535</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -4856,9 +6251,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4886,19 +6281,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>90430</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4906,19 +6301,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>90430</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -4926,19 +6321,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>376</v>
+        <v>-149</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4946,19 +6341,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>-149</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4966,19 +6361,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>90731</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -4986,19 +6381,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>90731</v>
+        <v>90235</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -5006,19 +6401,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -5026,19 +6421,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
       <c r="C9">
-        <v>90235</v>
+        <v>351</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -5046,19 +6441,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>57</v>
+        <v>-154</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -5066,19 +6461,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>90489</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>351</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -5086,19 +6481,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>-154</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -5109,36 +6504,36 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>90489</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>314181</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -5146,19 +6541,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>5232</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15">
-        <v>242</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -5166,22 +6561,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>-1122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="C16">
-        <v>195</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
       <c r="F16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5189,16 +6584,16 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -5209,16 +6604,16 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>314181</v>
+        <v>318217</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -5229,16 +6624,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>5232</v>
+        <v>312388</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -5249,16 +6644,16 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>-1122</v>
+        <v>827</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -5269,16 +6664,16 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>-74</v>
+        <v>4618</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -5286,19 +6681,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>318217</v>
+        <v>-1182</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -5306,19 +6701,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>316651</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>2020</v>
@@ -5326,19 +6721,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
-        <v>312388</v>
+        <v>1566</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>2020</v>
@@ -5346,39 +6741,39 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
       <c r="C25">
-        <v>827</v>
+        <v>1793</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26">
-        <v>4618</v>
+        <v>1628</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>2020</v>
@@ -5386,19 +6781,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27">
-        <v>-1182</v>
+        <v>34643</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>2020</v>
@@ -5406,19 +6801,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28">
-        <v>316651</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>2020</v>
@@ -5426,19 +6821,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>2020</v>
@@ -5446,19 +6841,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>1566</v>
+        <v>36271</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>2020</v>
@@ -5466,39 +6861,39 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>1628</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <v>1793</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
       <c r="F31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>2020</v>
@@ -5506,19 +6901,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>1628</v>
+        <v>20598</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -5526,19 +6921,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>34643</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>2020</v>
@@ -5546,19 +6941,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>22226</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>2020</v>
@@ -5566,19 +6961,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14045</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <v>2020</v>
@@ -5589,36 +6984,36 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>36271</v>
+        <v>1743</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2538</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F38">
         <v>2020</v>
@@ -5626,19 +7021,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>1628</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -5646,19 +7041,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>2020</v>
@@ -5666,19 +7061,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41">
-        <v>20598</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41">
         <v>2020</v>
@@ -5686,19 +7081,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2473</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>2020</v>
@@ -5706,19 +7101,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>22226</v>
+        <v>795</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>2020</v>
@@ -5726,19 +7121,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>2020</v>
@@ -5746,19 +7141,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>14045</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45">
         <v>2020</v>
@@ -5766,39 +7161,39 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>1743</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>2020</v>
@@ -5809,16 +7204,16 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>2538</v>
+        <v>1678</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F48">
         <v>2020</v>
@@ -5826,39 +7221,39 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F49">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C50">
-        <v>-65</v>
+        <v>408777</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>2020</v>
@@ -5866,19 +7261,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>40251</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51">
         <v>2020</v>
@@ -5886,19 +7281,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>2473</v>
+        <v>-1336</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F52">
         <v>2020</v>
@@ -5906,7 +7301,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -5915,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F53">
         <v>2020</v>
@@ -5926,19 +7321,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
       </c>
       <c r="C54">
-        <v>795</v>
+        <v>447692</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54">
         <v>2020</v>
@@ -5946,19 +7341,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>405046</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55">
         <v>2020</v>
@@ -5966,19 +7361,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>2020</v>
@@ -5986,19 +7381,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>25567</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F57">
         <v>2020</v>
@@ -6006,19 +7401,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>795</v>
+        <v>-1336</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>2020</v>
@@ -6026,19 +7421,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>430161</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F59">
         <v>2020</v>
@@ -6046,19 +7441,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C60">
-        <v>1678</v>
+        <v>17531</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F60">
         <v>2020</v>
@@ -6066,388 +7461,21 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>3731</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F61">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63">
-        <v>408777</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64">
-        <v>40251</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65">
-        <v>-1336</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67">
-        <v>447692</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69">
-        <v>405046</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70">
-        <v>884</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71">
-        <v>25567</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72">
-        <v>-1336</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73">
-        <v>430161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F74">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75">
-        <v>17531</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76">
-        <v>3731</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>4000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
         <v>2019</v>
       </c>
     </row>

--- a/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="137">
   <si>
     <t>line_item_0</t>
   </si>
@@ -75,6 +75,9 @@
     <t>Related party receivables (Note 20)</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Raw materials</t>
   </si>
   <si>
@@ -93,12 +96,54 @@
     <t>Non-current</t>
   </si>
   <si>
+    <t>header_col_2</t>
+  </si>
+  <si>
+    <t>header_col_3</t>
+  </si>
+  <si>
+    <t>header_col_4</t>
+  </si>
+  <si>
+    <t>Marubeni Corporation</t>
+  </si>
+  <si>
+    <t>Other related parties</t>
+  </si>
+  <si>
+    <t>Ultimate parent</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Sales to related parties</t>
+  </si>
+  <si>
+    <t>parties</t>
+  </si>
+  <si>
+    <t>Income tax receivable from related parties</t>
+  </si>
+  <si>
+    <t>Amounts owed by related parties*</t>
+  </si>
+  <si>
+    <t>Amounts owed to related parties*</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>fees to</t>
+  </si>
+  <si>
+    <t>Management and Service</t>
+  </si>
+  <si>
     <t>line_item_1</t>
   </si>
   <si>
-    <t>header_col_2</t>
-  </si>
-  <si>
     <t>Aluminium Pty Ltd</t>
   </si>
   <si>
@@ -177,9 +222,6 @@
     <t>Construction inj progress</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Current income tax benefit</t>
   </si>
   <si>
@@ -307,6 +349,15 @@
   </si>
   <si>
     <t>At31 December 2020</t>
+  </si>
+  <si>
+    <t>2020 Current</t>
+  </si>
+  <si>
+    <t>2020 Non-current</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Employee benefits</t>
@@ -849,10 +900,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>5119</v>
@@ -869,10 +920,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -889,10 +940,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>3027</v>
@@ -909,10 +960,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>8217</v>
@@ -929,10 +980,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>5473</v>
@@ -949,10 +1000,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -969,10 +1020,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>-1529</v>
@@ -989,10 +1040,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>3944</v>
@@ -1042,7 +1093,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>-28082</v>
@@ -1059,7 +1110,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>8425</v>
@@ -1076,7 +1127,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>-192</v>
@@ -1093,7 +1144,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>71</v>
@@ -1110,7 +1161,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>-87</v>
@@ -1127,7 +1178,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>-8217</v>
@@ -1144,7 +1195,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>-20678</v>
@@ -1161,7 +1212,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>6203</v>
@@ -1178,7 +1229,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>-2276</v>
@@ -1195,7 +1246,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1212,7 +1263,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -1229,7 +1280,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>-3944</v>
@@ -1279,7 +1330,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>-11017</v>
@@ -1296,7 +1347,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>3027</v>
@@ -1313,7 +1364,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>13747</v>
@@ -1330,7 +1381,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>5757</v>
@@ -1347,7 +1398,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>-14534</v>
@@ -1364,7 +1415,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>-1529</v>
@@ -1381,7 +1432,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>5046</v>
@@ -1398,7 +1449,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>-11017</v>
@@ -1451,7 +1502,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -1463,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>2020</v>
@@ -1471,7 +1522,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1483,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>2020</v>
@@ -1491,7 +1542,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>6559</v>
@@ -1503,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>2020</v>
@@ -1511,7 +1562,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>-302</v>
@@ -1523,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>2020</v>
@@ -1531,7 +1582,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>-13952</v>
@@ -1543,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G6">
         <v>2020</v>
@@ -1551,7 +1602,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -1563,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <v>2020</v>
@@ -1571,7 +1622,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>16238</v>
@@ -1583,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G8">
         <v>2020</v>
@@ -1591,7 +1642,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>316</v>
@@ -1603,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <v>2020</v>
@@ -1611,7 +1662,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>881</v>
@@ -1623,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>2020</v>
@@ -1631,7 +1682,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>-4213</v>
@@ -1643,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G11">
         <v>2020</v>
@@ -1651,7 +1702,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>162</v>
@@ -1663,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>2020</v>
@@ -1671,7 +1722,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1683,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>2020</v>
@@ -1691,7 +1742,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>5757</v>
@@ -1703,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G14">
         <v>2020</v>
@@ -1711,10 +1762,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>24223</v>
@@ -1726,7 +1777,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G15">
         <v>2020</v>
@@ -1734,10 +1785,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>-18466</v>
@@ -1749,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G16">
         <v>2020</v>
@@ -1757,10 +1808,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>5757</v>
@@ -1772,7 +1823,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>2020</v>
@@ -1780,7 +1831,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>68</v>
@@ -1792,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>2019</v>
@@ -1800,7 +1851,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>-12662</v>
@@ -1812,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G19">
         <v>2019</v>
@@ -1820,7 +1871,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>7055</v>
@@ -1832,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G20">
         <v>2019</v>
@@ -1840,7 +1891,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>-443</v>
@@ -1852,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G21">
         <v>2019</v>
@@ -1860,7 +1911,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>-10221</v>
@@ -1872,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G22">
         <v>2019</v>
@@ -1880,7 +1931,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>61</v>
@@ -1892,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G23">
         <v>2019</v>
@@ -1900,7 +1951,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>4671</v>
@@ -1912,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G24">
         <v>2019</v>
@@ -1920,7 +1971,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>454</v>
@@ -1932,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G25">
         <v>2019</v>
@@ -1940,7 +1991,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1952,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G26">
         <v>2019</v>
@@ -1960,7 +2011,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1972,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G27">
         <v>2019</v>
@@ -1980,7 +2031,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1992,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G28">
         <v>2019</v>
@@ -2000,7 +2051,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2012,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G29">
         <v>2019</v>
@@ -2020,7 +2071,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>-11017</v>
@@ -2032,7 +2083,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G30">
         <v>2019</v>
@@ -2040,10 +2091,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>12309</v>
@@ -2055,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G31">
         <v>2019</v>
@@ -2063,10 +2114,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>-23326</v>
@@ -2078,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G32">
         <v>2019</v>
@@ -2086,10 +2137,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C33">
         <v>-11017</v>
@@ -2101,7 +2152,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G33">
         <v>2019</v>
@@ -2109,7 +2160,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>28</v>
@@ -2121,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G34">
         <v>2020</v>
@@ -2129,7 +2180,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>-12662</v>
@@ -2141,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G35">
         <v>2020</v>
@@ -2149,7 +2200,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>496</v>
@@ -2161,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G36">
         <v>2020</v>
@@ -2169,7 +2220,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>-141</v>
@@ -2181,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G37">
         <v>2020</v>
@@ -2189,7 +2240,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>3730</v>
@@ -2201,7 +2252,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G38">
         <v>2020</v>
@@ -2209,7 +2260,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>33</v>
@@ -2221,7 +2272,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G39">
         <v>2020</v>
@@ -2229,7 +2280,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>-11567</v>
@@ -2241,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G40">
         <v>2020</v>
@@ -2249,7 +2300,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>138</v>
@@ -2261,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G41">
         <v>2020</v>
@@ -2269,7 +2320,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>-881</v>
@@ -2281,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G42">
         <v>2020</v>
@@ -2289,7 +2340,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>4213</v>
@@ -2301,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G43">
         <v>2020</v>
@@ -2309,7 +2360,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>-162</v>
@@ -2321,7 +2372,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G44">
         <v>2020</v>
@@ -2329,7 +2380,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <v>-16775</v>
@@ -2341,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G45">
         <v>2020</v>
@@ -2349,7 +2400,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2361,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G46">
         <v>2020</v>
@@ -2369,10 +2420,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2384,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G47">
         <v>2020</v>
@@ -2392,10 +2443,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2407,7 +2458,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G48">
         <v>2020</v>
@@ -2415,10 +2466,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2430,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G49">
         <v>2020</v>
@@ -2438,7 +2489,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <v>51</v>
@@ -2450,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G50">
         <v>2019</v>
@@ -2458,7 +2509,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C51">
         <v>5181</v>
@@ -2470,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G51">
         <v>2019</v>
@@ -2478,7 +2529,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C52">
         <v>-1034</v>
@@ -2490,7 +2541,7 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G52">
         <v>2019</v>
@@ -2498,7 +2549,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C53">
         <v>-443</v>
@@ -2510,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G53">
         <v>2019</v>
@@ -2518,7 +2569,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C54">
         <v>-12</v>
@@ -2530,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G54">
         <v>2019</v>
@@ -2538,7 +2589,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C55">
         <v>-643</v>
@@ -2550,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G55">
         <v>2019</v>
@@ -2558,7 +2609,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C56">
         <v>42</v>
@@ -2570,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G56">
         <v>2019</v>
@@ -2578,7 +2629,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C57">
         <v>454</v>
@@ -2590,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G57">
         <v>2019</v>
@@ -2598,7 +2649,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C58">
         <v>-79</v>
@@ -2610,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G58">
         <v>2019</v>
@@ -2618,7 +2669,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2630,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G59">
         <v>2019</v>
@@ -2638,7 +2689,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2650,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G60">
         <v>2019</v>
@@ -2658,7 +2709,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>3517</v>
@@ -2670,7 +2721,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G61">
         <v>2019</v>
@@ -2678,7 +2729,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2690,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G62">
         <v>2019</v>
@@ -2698,10 +2749,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2713,7 +2764,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G63">
         <v>2019</v>
@@ -2721,10 +2772,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2736,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G64">
         <v>2019</v>
@@ -2744,10 +2795,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2759,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G65">
         <v>2019</v>
@@ -2800,7 +2851,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2817,7 +2868,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>4000</v>
@@ -2850,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2873,10 +2924,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>52100</v>
@@ -2885,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -2896,7 +2947,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2905,7 +2956,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -2916,10 +2967,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>3273</v>
@@ -2928,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -2939,10 +2990,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>48827</v>
@@ -2951,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -2962,10 +3013,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>13500</v>
@@ -2974,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -2985,7 +3036,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2994,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -3005,10 +3056,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>13500</v>
@@ -3017,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -3028,10 +3079,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3040,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -3051,10 +3102,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>52100</v>
@@ -3063,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -3074,7 +3125,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>4000</v>
@@ -3083,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -3094,10 +3145,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>1023</v>
@@ -3106,7 +3157,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -3117,10 +3168,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>47077</v>
@@ -3129,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -3140,10 +3191,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>13500</v>
@@ -3152,7 +3203,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -3163,7 +3214,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3172,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -3183,10 +3234,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D16">
         <v>13500</v>
@@ -3195,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -3206,10 +3257,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3218,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -3259,13 +3310,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
       </c>
       <c r="C2">
         <v>4343</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>2020</v>
@@ -3273,13 +3327,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
       </c>
       <c r="C3">
         <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -3287,13 +3344,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -3301,13 +3361,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
       </c>
       <c r="C5">
         <v>4884</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -3315,13 +3378,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
       </c>
       <c r="C6">
         <v>4846</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -3329,13 +3395,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -3343,13 +3412,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
       </c>
       <c r="C8">
         <v>3725</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -3357,13 +3429,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
       </c>
       <c r="C9">
         <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>2020</v>
@@ -3371,13 +3446,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -3385,13 +3463,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
       </c>
       <c r="C11">
         <v>3884</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>2020</v>
@@ -3399,13 +3480,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
       </c>
       <c r="C12">
         <v>3884</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -3413,13 +3497,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>2020</v>
@@ -3427,13 +3514,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -3441,13 +3531,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
       </c>
       <c r="C15">
         <v>865</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -3455,13 +3548,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
       </c>
       <c r="C16">
         <v>-518</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -3469,13 +3565,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
       </c>
       <c r="C17">
         <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>2020</v>
@@ -3483,13 +3582,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>2020</v>
@@ -3497,13 +3599,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
       </c>
       <c r="C19">
         <v>347</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <v>2020</v>
@@ -3511,13 +3616,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
       </c>
       <c r="C20">
         <v>4806</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E20">
         <v>2020</v>
@@ -3525,13 +3633,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
       </c>
       <c r="C21">
         <v>36032</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>2020</v>
@@ -3539,13 +3650,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
       </c>
       <c r="C22">
         <v>-336</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>2020</v>
@@ -3553,13 +3667,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
       </c>
       <c r="C23">
         <v>40502</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>2020</v>
@@ -3567,13 +3684,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>2020</v>
@@ -3581,13 +3701,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
       </c>
       <c r="C25">
         <v>40502</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>2020</v>
@@ -3595,13 +3718,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
       </c>
       <c r="C26">
         <v>6983</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>2020</v>
@@ -3609,13 +3735,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
       </c>
       <c r="C27">
         <v>1286</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E27">
         <v>2020</v>
@@ -3623,13 +3752,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E28">
         <v>2020</v>
@@ -3637,13 +3769,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
       </c>
       <c r="C29">
         <v>8269</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E29">
         <v>2020</v>
@@ -3651,13 +3786,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
       </c>
       <c r="C30">
         <v>729</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>2020</v>
@@ -3665,13 +3803,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
       </c>
       <c r="C31">
         <v>7540</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E31">
         <v>2020</v>
@@ -3679,13 +3820,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
       </c>
       <c r="C32">
         <v>19857</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>2020</v>
@@ -3693,13 +3837,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
       </c>
       <c r="C33">
         <v>38883</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E33">
         <v>2020</v>
@@ -3707,13 +3854,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
       </c>
       <c r="C34">
         <v>-854</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -3721,13 +3871,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
       </c>
       <c r="C35">
         <v>57886</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>2020</v>
@@ -3735,13 +3888,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
       </c>
       <c r="C36">
         <v>9459</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>2020</v>
@@ -3749,13 +3905,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
       </c>
       <c r="C37">
         <v>48427</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>2020</v>
@@ -3796,7 +3955,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>25569</v>
@@ -3813,7 +3972,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>2935</v>
@@ -3830,7 +3989,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1053</v>
@@ -3846,6 +4005,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5">
         <v>29557</v>
       </c>
@@ -3861,7 +4023,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>25662</v>
@@ -3878,7 +4040,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>3895</v>
@@ -3928,7 +4090,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>150997</v>
@@ -3945,7 +4107,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>150997</v>
@@ -3995,10 +4157,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>29543</v>
@@ -4015,10 +4177,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>-31598</v>
@@ -4035,10 +4197,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>-2055</v>
@@ -4054,8 +4216,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -4071,8 +4236,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4089,10 +4257,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>5922</v>
@@ -4109,10 +4277,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>-8448</v>
@@ -4129,10 +4297,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>-2526</v>
@@ -4148,8 +4316,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -4165,8 +4336,11 @@
       </c>
     </row>
     <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4183,10 +4357,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C12">
         <v>325</v>
@@ -4203,10 +4377,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>325</v>
@@ -4222,8 +4396,11 @@
       </c>
     </row>
     <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -4239,8 +4416,11 @@
       </c>
     </row>
     <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4257,10 +4437,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>35790</v>
@@ -4277,10 +4457,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>-40046</v>
@@ -4297,10 +4477,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>-4256</v>
@@ -4317,10 +4497,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C19">
         <v>41448</v>
@@ -4337,10 +4517,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>-11905</v>
@@ -4357,10 +4537,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>29543</v>
@@ -4376,8 +4556,11 @@
       </c>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C22">
         <v>2019</v>
@@ -4393,8 +4576,11 @@
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4411,10 +4597,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C24">
         <v>3049</v>
@@ -4431,10 +4617,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C25">
         <v>2873</v>
@@ -4451,10 +4637,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C26">
         <v>5922</v>
@@ -4470,8 +4656,11 @@
       </c>
     </row>
     <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>2019</v>
@@ -4487,8 +4676,11 @@
       </c>
     </row>
     <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4505,10 +4697,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <v>325</v>
@@ -4525,10 +4717,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C30">
         <v>325</v>
@@ -4544,8 +4736,11 @@
       </c>
     </row>
     <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>2019</v>
@@ -4561,8 +4756,11 @@
       </c>
     </row>
     <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4579,10 +4777,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>44822</v>
@@ -4599,10 +4797,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>-9032</v>
@@ -4619,10 +4817,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>35790</v>
@@ -4705,6 +4903,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4">
         <v>13624</v>
       </c>
@@ -4753,6 +4954,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7">
         <v>11999</v>
       </c>
@@ -4801,10 +5005,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>214911</v>
@@ -4821,10 +5025,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>214911</v>
@@ -4841,10 +5045,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>190814</v>
@@ -4861,10 +5065,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>24097</v>
@@ -4881,10 +5085,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>214911</v>
@@ -4901,10 +5105,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>214911</v>
@@ -4921,10 +5125,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <v>214911</v>
@@ -4941,10 +5145,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C9">
         <v>229785</v>
@@ -4961,10 +5165,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>229785</v>
@@ -4981,10 +5185,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>197789</v>
@@ -5001,10 +5205,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>31996</v>
@@ -5021,10 +5225,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>229785</v>
@@ -5041,10 +5245,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>229785</v>
@@ -5061,10 +5265,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <v>229785</v>
@@ -5114,7 +5318,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>775</v>
@@ -5131,7 +5335,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>780</v>
@@ -5181,7 +5385,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>13054</v>
@@ -5198,7 +5402,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5215,7 +5419,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5232,7 +5436,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>577</v>
@@ -5248,6 +5452,9 @@
       </c>
     </row>
     <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="C6">
         <v>13631</v>
       </c>
@@ -5263,7 +5470,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>5350</v>
@@ -5280,7 +5487,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>4202</v>
@@ -5297,7 +5504,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>95</v>
@@ -5314,7 +5521,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>497</v>
@@ -5330,6 +5537,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="C11">
         <v>10144</v>
       </c>
@@ -5378,7 +5588,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5395,7 +5605,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>170</v>
@@ -5445,7 +5655,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>-203</v>
@@ -5462,7 +5672,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>-336</v>
@@ -5478,6 +5688,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4">
         <v>-539</v>
       </c>
@@ -5493,7 +5706,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>-303</v>
@@ -5510,7 +5723,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>-315</v>
@@ -5526,6 +5739,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7">
         <v>-618</v>
       </c>
@@ -5574,7 +5790,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>18547</v>
@@ -5591,7 +5807,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>8651</v>
@@ -5607,6 +5823,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4">
         <v>27198</v>
       </c>
@@ -5622,7 +5841,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>19816</v>
@@ -5639,7 +5858,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>7137</v>
@@ -5655,6 +5874,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7">
         <v>26953</v>
       </c>
@@ -5703,10 +5925,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5723,10 +5945,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5742,8 +5964,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5760,10 +5985,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5780,10 +6005,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>51</v>
@@ -5800,10 +6025,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>29702</v>
@@ -5819,8 +6044,11 @@
       </c>
     </row>
     <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>29753</v>
@@ -5837,10 +6065,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>12453</v>
@@ -5862,12 +6090,507 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>190813761</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>24096896</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>214910657</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1758031</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>138000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1896031</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>6318000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>6318000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>10603755</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1322964</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>11926719</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>3784111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>4627015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>8411126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5885,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5908,25 +6631,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>2020</v>
@@ -5934,25 +6657,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>2019</v>
@@ -5960,13 +6683,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>47672</v>
@@ -5978,7 +6701,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2020</v>
@@ -5986,13 +6709,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>54535</v>
@@ -6004,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2019</v>
@@ -6045,7 +6768,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>54535</v>
@@ -6062,7 +6785,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1586</v>
@@ -6079,7 +6802,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>-8448</v>
@@ -6096,7 +6819,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>47672</v>
@@ -6113,7 +6836,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>59249</v>
@@ -6130,7 +6853,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>-7587</v>
@@ -6147,7 +6870,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2873</v>
@@ -6164,7 +6887,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>54535</v>
@@ -6214,7 +6937,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>47672</v>
@@ -6231,7 +6954,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>54535</v>
@@ -6281,10 +7004,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>90430</v>
@@ -6293,7 +7016,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -6301,10 +7024,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>376</v>
@@ -6313,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -6321,10 +7044,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>-149</v>
@@ -6333,7 +7056,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -6341,10 +7064,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>74</v>
@@ -6353,7 +7076,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -6361,10 +7084,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>90731</v>
@@ -6373,7 +7096,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -6381,10 +7104,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>90235</v>
@@ -6393,7 +7116,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -6401,10 +7124,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -6413,7 +7136,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -6421,10 +7144,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>351</v>
@@ -6433,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -6441,10 +7164,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>-154</v>
@@ -6453,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -6461,10 +7184,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>90489</v>
@@ -6473,7 +7196,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -6481,10 +7204,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>242</v>
@@ -6493,7 +7216,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -6501,10 +7224,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>195</v>
@@ -6513,7 +7236,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -6521,10 +7244,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>314181</v>
@@ -6533,7 +7256,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -6541,10 +7264,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>5232</v>
@@ -6553,7 +7276,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -6561,10 +7284,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>-1122</v>
@@ -6573,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -6581,10 +7304,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>-74</v>
@@ -6593,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -6601,10 +7324,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>318217</v>
@@ -6613,7 +7336,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -6621,10 +7344,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>312388</v>
@@ -6633,7 +7356,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -6641,10 +7364,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>827</v>
@@ -6653,7 +7376,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -6661,10 +7384,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>4618</v>
@@ -6673,7 +7396,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -6681,10 +7404,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>-1182</v>
@@ -6693,7 +7416,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -6701,10 +7424,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>316651</v>
@@ -6713,7 +7436,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>2020</v>
@@ -6721,10 +7444,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>1566</v>
@@ -6733,7 +7456,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <v>2020</v>
@@ -6741,10 +7464,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>1793</v>
@@ -6753,7 +7476,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -6761,10 +7484,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>1628</v>
@@ -6773,7 +7496,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>2020</v>
@@ -6781,10 +7504,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>34643</v>
@@ -6793,7 +7516,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F27">
         <v>2020</v>
@@ -6801,10 +7524,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6813,7 +7536,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F28">
         <v>2020</v>
@@ -6821,10 +7544,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6833,7 +7556,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>2020</v>
@@ -6841,10 +7564,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>36271</v>
@@ -6853,7 +7576,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <v>2020</v>
@@ -6861,10 +7584,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>1628</v>
@@ -6873,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <v>2020</v>
@@ -6881,10 +7604,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -6893,7 +7616,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>2020</v>
@@ -6901,10 +7624,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>20598</v>
@@ -6913,7 +7636,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -6921,10 +7644,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -6933,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>2020</v>
@@ -6941,10 +7664,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>22226</v>
@@ -6953,7 +7676,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>2020</v>
@@ -6961,10 +7684,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>14045</v>
@@ -6973,7 +7696,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>2020</v>
@@ -6981,10 +7704,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>1743</v>
@@ -6993,7 +7716,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F37">
         <v>2019</v>
@@ -7001,10 +7724,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>2538</v>
@@ -7013,7 +7736,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>2020</v>
@@ -7021,10 +7744,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -7033,7 +7756,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -7041,10 +7764,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>-65</v>
@@ -7053,7 +7776,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <v>2020</v>
@@ -7061,10 +7784,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -7073,7 +7796,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>2020</v>
@@ -7081,10 +7804,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>2473</v>
@@ -7093,7 +7816,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F42">
         <v>2020</v>
@@ -7101,10 +7824,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>795</v>
@@ -7113,7 +7836,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>2020</v>
@@ -7121,10 +7844,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -7133,7 +7856,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <v>2020</v>
@@ -7141,10 +7864,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -7153,7 +7876,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F45">
         <v>2020</v>
@@ -7161,10 +7884,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -7173,7 +7896,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>2020</v>
@@ -7181,10 +7904,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>795</v>
@@ -7193,7 +7916,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>2020</v>
@@ -7201,10 +7924,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>1678</v>
@@ -7213,7 +7936,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <v>2020</v>
@@ -7221,10 +7944,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -7233,7 +7956,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F49">
         <v>2019</v>
@@ -7241,10 +7964,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>408777</v>
@@ -7253,7 +7976,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>2020</v>
@@ -7261,10 +7984,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>40251</v>
@@ -7273,7 +7996,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>2020</v>
@@ -7281,10 +8004,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>-1336</v>
@@ -7293,7 +8016,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>2020</v>
@@ -7301,10 +8024,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -7313,7 +8036,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>2020</v>
@@ -7321,10 +8044,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>447692</v>
@@ -7333,7 +8056,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>2020</v>
@@ -7341,10 +8064,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>405046</v>
@@ -7353,7 +8076,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F55">
         <v>2020</v>
@@ -7361,10 +8084,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>884</v>
@@ -7373,7 +8096,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F56">
         <v>2020</v>
@@ -7381,10 +8104,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>25567</v>
@@ -7393,7 +8116,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>2020</v>
@@ -7401,10 +8124,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>-1336</v>
@@ -7413,7 +8136,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F58">
         <v>2020</v>
@@ -7421,10 +8144,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C59">
         <v>430161</v>
@@ -7433,7 +8156,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>2020</v>
@@ -7441,10 +8164,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C60">
         <v>17531</v>
@@ -7453,7 +8176,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>2020</v>
@@ -7461,10 +8184,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>3731</v>
@@ -7473,7 +8196,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>2019</v>
